--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\chat_bot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49646E4A-F0A5-46B6-93EA-B626372280B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BE7AB-7C4F-4001-9737-36672AFBD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="91">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -172,9 +172,6 @@
     <t>An email that I can reach out to, to find out more about the admission process</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Have they visited SIT's website before?</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Joey</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -205,181 +199,115 @@
     <t>Its me</t>
   </si>
   <si>
-    <t>Josh</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>User was actually using search bar to search for the queries rather than navigating through the different tabs</t>
   </si>
   <si>
-    <t>Yong Chun</t>
-  </si>
-  <si>
     <t>even faster</t>
   </si>
   <si>
-    <t>Elsha</t>
-  </si>
-  <si>
     <t>suprisingly specific, dont need to ask many questions but not enough personality</t>
   </si>
   <si>
-    <t>Jerald</t>
-  </si>
-  <si>
     <t>abit slow but is like googling but easier because it understands the context</t>
   </si>
   <si>
     <t>uses search bar sometimes but gets distracted very easily</t>
   </si>
   <si>
-    <t>Aziza Kanimetova</t>
-  </si>
-  <si>
     <t>the chatbot is quicker, the website not all the pages are well deisgn, For example for the deadline you have to go to the QnA part to find out</t>
   </si>
   <si>
     <t>it is unable to recognise the difference between the word "course fee" and "cost"</t>
   </si>
   <si>
-    <t>Patrick Lim</t>
-  </si>
-  <si>
     <t>all the question can be link to a single subject</t>
   </si>
   <si>
     <t>Uses search bar too to search for answers rather than navigating within the website</t>
   </si>
   <si>
-    <t>Cristina Ng</t>
-  </si>
-  <si>
     <t>faster, its better than the search engine, tell the school that my mother says so, most places have a small chabot currently now at the side of the portal to assist with searches</t>
   </si>
   <si>
     <t>users search bar too to search for answers</t>
   </si>
   <si>
-    <t>Lester</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
     <t>Doubting the reliability of the language model, afraid of not getting accurate data and I will visit the website anyway to confirm if the data real</t>
   </si>
   <si>
-    <t>Jack Ong</t>
-  </si>
-  <si>
     <t>It is faster and allows me to ask the question that I need instead of going to the link and trial and error</t>
   </si>
   <si>
     <t xml:space="preserve">Chatbot crashed </t>
   </si>
   <si>
-    <t>Matthew Wong</t>
-  </si>
-  <si>
     <t>Because some of the website information is so stupid and hard to find</t>
   </si>
   <si>
     <t>It got the question about the undergraduate application deadline wrong because of its inability to understand the users question</t>
   </si>
   <si>
-    <t>Chen Lei</t>
-  </si>
-  <si>
     <t>I do not need to find where the material is, just asking can get what I want</t>
   </si>
   <si>
-    <t>Wen Jun</t>
-  </si>
-  <si>
     <t>I can just ask it questions and immediately get the answer</t>
   </si>
   <si>
     <t>User uses search bar at times to search for answers in the SIT website</t>
   </si>
   <si>
-    <t>Hong Wei</t>
-  </si>
-  <si>
     <t>The wbesite is very confusing in general and the way that is it categorise can be quite confusing for example whem looking for an email about admission, why isit not under the admission tab but rather in the contact us page</t>
   </si>
   <si>
     <t>EDE was not recognise properly and it led to the general course page</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>Faster and I dont have to look through so much bullshit and I can just type key words easy</t>
   </si>
   <si>
     <t>it didnt recognise application but could only recogise admission for the last question</t>
   </si>
   <si>
-    <t>Samantha Lim</t>
-  </si>
-  <si>
     <t>It is so much more convienent, you just need to type in key words and you dont have to squnich your eyes to look for everything on the website</t>
   </si>
   <si>
     <t>Uses the search function to search sometiems</t>
   </si>
   <si>
-    <t>Jeremy Wong</t>
-  </si>
-  <si>
     <t>It just goes direct to the point, you dont need to go through pages where you think that the information is there but it is not</t>
   </si>
   <si>
     <t>Does not recongise EDE again but manage to still provide the correct course link</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
     <t>Because I like to see the vibrant colors and the human touch in it. The visuals make it more appealing than the chatbot</t>
   </si>
   <si>
     <t>Use search bar in sit website to search for info but cannot find someimtes.</t>
   </si>
   <si>
-    <t>Meg</t>
-  </si>
-  <si>
     <t>I think it allows me to just use natural language to ask my questions instead of clicking around to find what I am looking for when i dont know where anything is</t>
   </si>
   <si>
     <t>Did not get the correct answer for application deadline</t>
   </si>
   <si>
-    <t>Tania</t>
-  </si>
-  <si>
     <t>I think that the website will provide me to have more information that I would think initially that I wouldnt need, because I would have stuff that I would have overlook if I were to use the chatbot</t>
   </si>
   <si>
-    <t>Triston</t>
-  </si>
-  <si>
     <t>if I am looking casually, fast and straight foward information then it is chatbot, but if I require more indepth I will use the website</t>
   </si>
   <si>
-    <t>Angela</t>
-  </si>
-  <si>
     <t>I can see all the information and it is more reliable</t>
   </si>
   <si>
     <t>unable to understand immediately question 5, chinese is direct translated surprisingly when asked a chinese question</t>
-  </si>
-  <si>
-    <t>Xin Bei</t>
   </si>
   <si>
     <t>I mean chatbot is the lazier option, you dont have to navigate through the ui, the user thought that the chatbot was dead because there was no loading bar</t>
@@ -2703,7 +2631,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -3211,24 +3139,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3244,549 +3171,477 @@
       <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>

--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BE7AB-7C4F-4001-9737-36672AFBD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E8297-386E-4CB9-8D4C-A9C338BAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -55,9 +55,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>RED for failure (more than 3 mins is failed task)</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -311,6 +308,12 @@
   </si>
   <si>
     <t>I mean chatbot is the lazier option, you dont have to navigate through the ui, the user thought that the chatbot was dead because there was no loading bar</t>
+  </si>
+  <si>
+    <t>Task Completed (Chatbot)</t>
+  </si>
+  <si>
+    <t>Task Completed (Manual)</t>
   </si>
 </sst>
 </file>
@@ -581,11 +584,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,10 +598,10 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +614,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,13 +637,16 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -648,10 +660,16 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -665,10 +683,16 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
@@ -682,10 +706,16 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>46</v>
@@ -699,10 +729,16 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -716,10 +752,16 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
@@ -733,10 +775,16 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>18</v>
@@ -750,10 +798,16 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -767,10 +821,16 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>17</v>
@@ -784,10 +844,16 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
@@ -801,10 +867,16 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>22</v>
@@ -818,10 +890,16 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -835,10 +913,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -852,10 +936,16 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>9</v>
@@ -869,10 +959,16 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -886,10 +982,16 @@
       <c r="E17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -903,10 +1005,16 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -920,10 +1028,16 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>9</v>
@@ -937,10 +1051,16 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>16</v>
@@ -954,10 +1074,16 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>13</v>
@@ -971,10 +1097,16 @@
       <c r="E22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -988,10 +1120,16 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>13</v>
@@ -1005,45 +1143,51 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -1064,7 +1208,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1075,15 +1219,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -1097,11 +1241,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,10 +1254,11 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1271,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1143,10 +1294,16 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>52</v>
@@ -1160,10 +1317,16 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>42</v>
@@ -1177,10 +1340,16 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>16</v>
@@ -1194,10 +1363,16 @@
       <c r="E5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>19</v>
@@ -1211,10 +1386,16 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>70</v>
@@ -1228,10 +1409,16 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>40</v>
@@ -1245,10 +1432,16 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
@@ -1262,10 +1455,16 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -1279,10 +1478,16 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>16</v>
@@ -1296,10 +1501,16 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>38</v>
@@ -1313,10 +1524,16 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>32</v>
@@ -1330,10 +1547,16 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>29</v>
@@ -1347,10 +1570,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -1364,10 +1593,16 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>9</v>
@@ -1381,10 +1616,16 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -1398,10 +1639,16 @@
       <c r="E17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>14</v>
@@ -1415,10 +1662,16 @@
       <c r="E18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>47</v>
@@ -1432,10 +1685,16 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>22</v>
@@ -1449,10 +1708,16 @@
       <c r="E20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>30</v>
@@ -1466,10 +1731,16 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>34</v>
@@ -1483,10 +1754,16 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>30</v>
@@ -1500,10 +1777,16 @@
       <c r="E23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>69</v>
@@ -1517,45 +1800,51 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -1576,7 +1865,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1587,15 +1876,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1608,11 +1897,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1622,9 +1911,11 @@
     <col min="3" max="3" width="60.140625" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,8 +1928,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1654,10 +1951,16 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>21</v>
@@ -1671,10 +1974,16 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>18</v>
@@ -1688,10 +1997,16 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -1705,10 +2020,16 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -1722,10 +2043,16 @@
       <c r="E6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>27</v>
@@ -1739,10 +2066,16 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -1756,10 +2089,16 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
@@ -1773,10 +2112,16 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>19</v>
@@ -1790,10 +2135,16 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -1807,10 +2158,16 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>28</v>
@@ -1824,10 +2181,16 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>25</v>
@@ -1841,10 +2204,16 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1858,10 +2227,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -1875,10 +2250,16 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -1892,10 +2273,16 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>26</v>
@@ -1909,10 +2296,16 @@
       <c r="E17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>14</v>
@@ -1926,10 +2319,16 @@
       <c r="E18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>24</v>
@@ -1943,10 +2342,16 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>29</v>
@@ -1960,10 +2365,16 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1977,10 +2388,16 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>28</v>
@@ -1994,10 +2411,16 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>20</v>
@@ -2011,10 +2434,16 @@
       <c r="E23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -2028,45 +2457,51 @@
       <c r="E24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -2087,7 +2522,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2098,15 +2533,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2119,11 +2554,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2132,9 +2567,10 @@
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,8 +2583,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2164,10 +2606,16 @@
       <c r="E2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>21</v>
@@ -2181,10 +2629,16 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>33</v>
@@ -2198,10 +2652,16 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -2215,10 +2675,16 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>37</v>
@@ -2232,10 +2698,16 @@
       <c r="E6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -2249,10 +2721,16 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>21</v>
@@ -2266,10 +2744,16 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>36</v>
@@ -2283,10 +2767,16 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -2300,10 +2790,16 @@
       <c r="E10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>58</v>
@@ -2317,10 +2813,16 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -2334,10 +2836,16 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -2351,10 +2859,16 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>22</v>
@@ -2368,10 +2882,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
@@ -2385,10 +2905,16 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2402,10 +2928,16 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>42</v>
@@ -2419,10 +2951,16 @@
       <c r="E17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>13</v>
@@ -2436,10 +2974,16 @@
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>51</v>
@@ -2453,10 +2997,16 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
@@ -2470,10 +3020,16 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>16</v>
@@ -2487,10 +3043,16 @@
       <c r="E21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>31</v>
@@ -2504,10 +3066,16 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
@@ -2521,10 +3089,16 @@
       <c r="E23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>17</v>
@@ -2538,45 +3112,51 @@
       <c r="E24" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -2597,7 +3177,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2608,15 +3188,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2629,11 +3209,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2641,10 +3221,11 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2657,8 +3238,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2674,10 +3261,16 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>41</v>
@@ -2691,10 +3284,16 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>14</v>
@@ -2708,10 +3307,16 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -2725,10 +3330,16 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -2742,10 +3353,16 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>33</v>
@@ -2759,10 +3376,16 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>150</v>
@@ -2776,10 +3399,16 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -2793,10 +3422,16 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>16</v>
@@ -2810,10 +3445,16 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>26</v>
@@ -2827,10 +3468,16 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
@@ -2844,10 +3491,16 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>14</v>
@@ -2861,10 +3514,16 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -2878,10 +3537,16 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
@@ -2895,10 +3560,16 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
@@ -2912,10 +3583,16 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>18</v>
@@ -2929,10 +3606,16 @@
       <c r="E17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
@@ -2946,10 +3629,16 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>31</v>
@@ -2963,10 +3652,16 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -2980,10 +3675,16 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -2997,10 +3698,16 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>52</v>
@@ -3014,10 +3721,16 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>28</v>
@@ -3031,10 +3744,16 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>14</v>
@@ -3048,45 +3767,51 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -3107,7 +3832,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -3118,15 +3843,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3866,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -3157,19 +3882,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3177,473 +3902,473 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E8297-386E-4CB9-8D4C-A9C338BAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFEC70-97B1-45FA-87D5-2CC56C2EA34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
@@ -1243,9 +1243,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFEC70-97B1-45FA-87D5-2CC56C2EA34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229015D-69AE-479D-8625-1178C7743400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="86">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -121,27 +121,6 @@
     <t>P23</t>
   </si>
   <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>P28</t>
-  </si>
-  <si>
-    <t>P29</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -314,6 +293,9 @@
   </si>
   <si>
     <t>Task Completed (Manual)</t>
+  </si>
+  <si>
+    <t>SIT Students?</t>
   </si>
 </sst>
 </file>
@@ -588,7 +570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -615,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1151,43 +1133,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -1208,7 +1176,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1219,20 +1187,21 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1243,9 +1212,9 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1272,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1808,43 +1777,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -1865,7 +1820,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1876,19 +1831,20 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1901,7 +1857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1929,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2465,43 +2421,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -2522,7 +2464,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2533,19 +2475,20 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2558,7 +2501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2584,10 +2527,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,43 +3063,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -3177,7 +3106,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -3188,19 +3117,20 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3213,7 +3143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3239,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3775,43 +3705,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
@@ -3832,7 +3748,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -3843,19 +3759,20 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3864,514 +3781,581 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="6" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229015D-69AE-479D-8625-1178C7743400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C58DB1-BC17-4AA3-9C59-F5BD7A825239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>SIT Students?</t>
+  </si>
+  <si>
+    <t>nil</t>
   </si>
 </sst>
 </file>
@@ -3781,11 +3784,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3794,11 +3797,11 @@
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="79.42578125" customWidth="1"/>
     <col min="7" max="7" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>85</v>
       </c>
@@ -3817,8 +3820,9 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3883,8 +3887,11 @@
       <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3903,8 +3910,11 @@
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4015,8 +4025,11 @@
       <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +4052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4081,8 +4094,11 @@
       <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4220,7 +4236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4262,6 +4278,9 @@
       <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -4282,6 +4301,9 @@
       <c r="F22" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -4324,6 +4346,9 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C58DB1-BC17-4AA3-9C59-F5BD7A825239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05EAEE-589F-468A-8622-3A6E22BFE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="88">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -238,9 +238,6 @@
     <t>User uses search bar at times to search for answers in the SIT website</t>
   </si>
   <si>
-    <t>The wbesite is very confusing in general and the way that is it categorise can be quite confusing for example whem looking for an email about admission, why isit not under the admission tab but rather in the contact us page</t>
-  </si>
-  <si>
     <t>EDE was not recognise properly and it led to the general course page</t>
   </si>
   <si>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>nil</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>The wbesite is very confusing in general and the way that is it categorise can be quite confusing for example when looking for an email about admission, why isit not under the admission tab but rather in the contact us page</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1244,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1888,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2530,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3172,10 +3175,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3788,7 +3791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3803,7 +3806,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -3839,7 +3842,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>44</v>
@@ -3888,7 +3891,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3911,7 +3914,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4026,7 +4029,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4095,7 +4098,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4138,10 +4141,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4161,10 +4164,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4184,10 +4187,10 @@
         <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4207,10 +4210,10 @@
         <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4230,10 +4233,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4253,10 +4256,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4276,10 +4279,10 @@
         <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4299,10 +4302,10 @@
         <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4322,10 +4325,10 @@
         <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4345,10 +4348,10 @@
         <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/assets/SIT User Study.xlsx
+++ b/assets/SIT User Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\krispy_noodles\SIT_Chatbot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05EAEE-589F-468A-8622-3A6E22BFE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3B69D-8B26-4A9A-B040-79BBAD6928EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="99">
   <si>
     <t>Chatbot (time)</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Chatbot</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
     <t>Its me</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>User was actually using search bar to search for the queries rather than navigating through the different tabs</t>
   </si>
   <si>
-    <t>even faster</t>
-  </si>
-  <si>
     <t>suprisingly specific, dont need to ask many questions but not enough personality</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>It is faster and allows me to ask the question that I need instead of going to the link and trial and error</t>
   </si>
   <si>
-    <t xml:space="preserve">Chatbot crashed </t>
-  </si>
-  <si>
     <t>Because some of the website information is so stupid and hard to find</t>
   </si>
   <si>
@@ -295,20 +286,62 @@
     <t>SIT Students?</t>
   </si>
   <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>The wbesite is very confusing in general and the way that is it categorise can be quite confusing for example when looking for an email about admission, why isit not under the admission tab but rather in the contact us page</t>
+  </si>
+  <si>
+    <t>I really prefer the chatbot as it I get my question answered alot faster than the website</t>
+  </si>
+  <si>
+    <t>the chatbot is faster</t>
+  </si>
+  <si>
+    <t>the information retrieval is done alot faster than the website</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Speed &amp; Convenience</t>
+  </si>
+  <si>
+    <t>Effortless Information Access</t>
+  </si>
+  <si>
+    <t>Ability to Understand Context</t>
+  </si>
+  <si>
+    <t>Chatbot crashed</t>
+  </si>
+  <si>
+    <t>Frustration with Website Navigation</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,16 +362,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA64D79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -346,14 +416,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1891,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2533,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3789,24 +3895,24 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="79.42578125" customWidth="1"/>
-    <col min="7" max="7" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>84</v>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -3821,11 +3927,13 @@
         <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3838,45 +3946,51 @@
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -3884,17 +3998,17 @@
       <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3910,14 +4024,14 @@
       <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3925,7 +4039,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -3933,22 +4047,25 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
@@ -3956,22 +4073,25 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -3979,22 +4099,25 @@
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
@@ -4002,37 +4125,38 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4164,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
@@ -4048,22 +4172,25 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
@@ -4071,14 +4198,17 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4086,7 +4216,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
@@ -4094,14 +4224,14 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4117,45 +4247,51 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -4163,22 +4299,25 @@
       <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>41</v>
@@ -4186,22 +4325,25 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -4209,14 +4351,17 @@
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4224,22 +4369,23 @@
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4255,14 +4401,17 @@
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4276,16 +4425,14 @@
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4301,14 +4448,14 @@
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4322,16 +4469,17 @@
         <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4347,40 +4495,47 @@
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
